--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -28,9 +27,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Nagaraju </t>
-  </si>
-  <si>
     <t>Madupu</t>
   </si>
   <si>
@@ -53,6 +49,9 @@
   </si>
   <si>
     <t>hari@gmail.com</t>
+  </si>
+  <si>
+    <t>Nagaraju</t>
   </si>
 </sst>
 </file>
@@ -400,7 +399,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -418,35 +417,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
